--- a/parceiros_unique.xlsx
+++ b/parceiros_unique.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="111">
   <si>
     <t>Nome</t>
   </si>
@@ -123,6 +123,33 @@
     <t>SEVERINO GABRIEL NGOLE</t>
   </si>
   <si>
+    <t>JAIME ANTONIO JAIME</t>
+  </si>
+  <si>
+    <t>JONA MARIO CHIMUAZE</t>
+  </si>
+  <si>
+    <t>JULIASSE SANUEL SABAO</t>
+  </si>
+  <si>
+    <t>MARIA BERNADO</t>
+  </si>
+  <si>
+    <t>MARIA DOMINGOS</t>
+  </si>
+  <si>
+    <t>MARTA MACARREIA</t>
+  </si>
+  <si>
+    <t>RITA MUTONDO</t>
+  </si>
+  <si>
+    <t>ZACARIAS MANUEL JOSE</t>
+  </si>
+  <si>
+    <t>ZITO RESTORANTE AGOSTINHO</t>
+  </si>
+  <si>
     <t>Regiao</t>
   </si>
   <si>
@@ -234,12 +261,48 @@
     <t>GESTOR DE PROGRAMA</t>
   </si>
   <si>
+    <t>TENICO</t>
+  </si>
+  <si>
+    <t>SUPERVISO DE POUPANCA</t>
+  </si>
+  <si>
+    <t>TENICA</t>
+  </si>
+  <si>
+    <t>GESTORA</t>
+  </si>
+  <si>
     <t>Contacto</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>876919019</t>
+  </si>
+  <si>
+    <t>862904595</t>
+  </si>
+  <si>
+    <t>864132495</t>
+  </si>
+  <si>
+    <t>849549307</t>
+  </si>
+  <si>
+    <t>845740602</t>
+  </si>
+  <si>
+    <t>843807230</t>
+  </si>
+  <si>
+    <t>855511294</t>
+  </si>
+  <si>
+    <t>875479685</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -258,6 +321,12 @@
     <t xml:space="preserve"> 11/9/2022</t>
   </si>
   <si>
+    <t>10/22/2022</t>
+  </si>
+  <si>
+    <t>10/21/2022</t>
+  </si>
+  <si>
     <t>nrworkshoop</t>
   </si>
   <si>
@@ -265,6 +334,18 @@
   </si>
   <si>
     <t>apresentacao_photovoice</t>
+  </si>
+  <si>
+    <t>Contacto2</t>
+  </si>
+  <si>
+    <t>853468553</t>
+  </si>
+  <si>
+    <t>879549307</t>
+  </si>
+  <si>
+    <t>875448939</t>
   </si>
 </sst>
 </file>
@@ -308,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -316,31 +397,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -348,31 +432,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -380,31 +467,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H3" s="0">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -412,31 +502,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -444,31 +537,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H5" s="0">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -476,31 +572,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H6" s="0">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -508,31 +607,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H7" s="0">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -540,31 +642,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -572,31 +677,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="H9" s="0">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -604,31 +712,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H10" s="0">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -636,31 +747,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H11" s="0">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -668,31 +782,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H12" s="0">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -700,31 +817,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H13" s="0">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -732,31 +852,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H14" s="0">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -764,31 +887,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H15" s="0">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -796,31 +922,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H16" s="0">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -828,31 +957,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -860,31 +992,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H18" s="0">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -892,31 +1027,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -924,31 +1062,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H20" s="0">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -956,31 +1097,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H21" s="0">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -988,31 +1132,34 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H22" s="0">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -1020,31 +1167,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H23" s="0">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -1052,31 +1202,34 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H24" s="0">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -1084,31 +1237,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1116,31 +1272,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1148,31 +1307,34 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H27" s="0">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -1180,31 +1342,34 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -1212,31 +1377,34 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H29" s="0">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -1244,31 +1412,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H30" s="0">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -1276,31 +1447,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H31" s="0">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1308,31 +1482,34 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H32" s="0">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -1340,31 +1517,34 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H33" s="0">
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -1372,31 +1552,34 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H34" s="0">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -1404,31 +1587,34 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H35" s="0">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36">
@@ -1436,31 +1622,349 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H36" s="0">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="K36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="0">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="0">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="0">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="0">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="0">
+        <v>4</v>
+      </c>
+      <c r="I41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="0">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="0">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="0">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" t="s">
+        <v>87</v>
+      </c>
+      <c r="K44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="0">
+        <v>4</v>
+      </c>
+      <c r="I45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/parceiros_unique.xlsx
+++ b/parceiros_unique.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="113">
   <si>
     <t>Nome</t>
   </si>
@@ -54,6 +54,9 @@
     <t>TEODORO BOMBA</t>
   </si>
   <si>
+    <t>TEMOTEO SERIANO</t>
+  </si>
+  <si>
     <t>GRACIEL JAFAR</t>
   </si>
   <si>
@@ -222,6 +225,9 @@
     <t>PESQUISA E DESENVOLVIMENTO PFNM</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>TECNICO DE APICULTURA</t>
   </si>
   <si>
@@ -276,9 +282,6 @@
     <t>Contacto</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>876919019</t>
   </si>
   <si>
@@ -310,6 +313,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 8/11/2022</t>
+  </si>
+  <si>
+    <t>10/18/2022</t>
   </si>
   <si>
     <t xml:space="preserve">  9/8/2022</t>
@@ -389,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -397,34 +403,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
@@ -432,34 +438,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -467,34 +473,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" s="0">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -502,34 +508,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -537,34 +543,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" s="0">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -572,34 +578,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H6" s="0">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -607,34 +613,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H7" s="0">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -642,34 +648,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -677,34 +683,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H9" s="0">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -712,34 +718,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H10" s="0">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -747,34 +753,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="0">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -782,34 +788,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H12" s="0">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -817,34 +823,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H13" s="0">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -855,31 +861,31 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -887,34 +893,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H15" s="0">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -922,34 +928,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16" s="0">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -957,34 +963,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -992,34 +998,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H18" s="0">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -1027,34 +1033,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -1062,34 +1068,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H20" s="0">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -1097,34 +1103,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H21" s="0">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -1132,34 +1138,34 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H22" s="0">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -1167,34 +1173,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H23" s="0">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -1202,34 +1208,34 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H24" s="0">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -1237,34 +1243,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -1272,34 +1278,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1307,34 +1313,34 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H27" s="0">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K27" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -1342,34 +1348,34 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -1377,34 +1383,34 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H29" s="0">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K29" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -1412,34 +1418,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H30" s="0">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1447,34 +1453,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H31" s="0">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1482,34 +1488,34 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H32" s="0">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -1517,34 +1523,34 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H33" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -1552,34 +1558,34 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H34" s="0">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -1587,34 +1593,34 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H35" s="0">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -1622,34 +1628,34 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H36" s="0">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -1657,34 +1663,34 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H37" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -1692,34 +1698,34 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
         <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H38" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -1727,34 +1733,34 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
         <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H39" s="0">
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -1762,34 +1768,34 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H40" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -1797,34 +1803,34 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H41" s="0">
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -1832,34 +1838,34 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
         <v>92</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H42" s="0">
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -1867,34 +1873,34 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
         <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H43" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K43" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -1902,34 +1908,34 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
         <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H44" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J44" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K44" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
@@ -1937,34 +1943,69 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
         <v>95</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H45" s="0">
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s">
-        <v>87</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="0">
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
